--- a/data/pca/factorExposure/factorExposure_2017-02-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01287639286780836</v>
+        <v>0.0118994703680036</v>
       </c>
       <c r="C2">
-        <v>-0.0198672665683735</v>
+        <v>-0.04147152981131903</v>
       </c>
       <c r="D2">
-        <v>0.0212912318802706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03041085288761454</v>
+      </c>
+      <c r="E2">
+        <v>-0.04223831707971066</v>
+      </c>
+      <c r="F2">
+        <v>0.006858459764856667</v>
+      </c>
+      <c r="G2">
+        <v>-0.10984016480222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02591483205875086</v>
+        <v>0.03896699774711912</v>
       </c>
       <c r="C3">
-        <v>0.001863107668004523</v>
+        <v>-0.1015611316074739</v>
       </c>
       <c r="D3">
-        <v>0.0916142710011487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01819129550138112</v>
+      </c>
+      <c r="E3">
+        <v>-0.1027705167838764</v>
+      </c>
+      <c r="F3">
+        <v>0.02081106629712976</v>
+      </c>
+      <c r="G3">
+        <v>-0.142083619438379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03060642257558151</v>
+        <v>0.05547343900242413</v>
       </c>
       <c r="C4">
-        <v>-0.009886385681651224</v>
+        <v>-0.0675179007573839</v>
       </c>
       <c r="D4">
-        <v>0.08081525060278057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0252079445942181</v>
+      </c>
+      <c r="E4">
+        <v>-0.04001601349479726</v>
+      </c>
+      <c r="F4">
+        <v>-0.000636948090657016</v>
+      </c>
+      <c r="G4">
+        <v>-0.1028219063692539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.007955854516906211</v>
+        <v>0.03501189694802526</v>
       </c>
       <c r="C6">
-        <v>-0.01199380380514743</v>
+        <v>-0.05131648579653134</v>
       </c>
       <c r="D6">
-        <v>0.06239495529018622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01771330828741837</v>
+      </c>
+      <c r="E6">
+        <v>-0.0435975327012916</v>
+      </c>
+      <c r="F6">
+        <v>-0.0001146282541072441</v>
+      </c>
+      <c r="G6">
+        <v>-0.08636667020058496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004319949453765433</v>
+        <v>0.02017267497020261</v>
       </c>
       <c r="C7">
-        <v>-0.01408927829905854</v>
+        <v>-0.03983479580900846</v>
       </c>
       <c r="D7">
-        <v>0.03376785533130059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01429865687054739</v>
+      </c>
+      <c r="E7">
+        <v>-0.006777042105278871</v>
+      </c>
+      <c r="F7">
+        <v>0.003540450346881696</v>
+      </c>
+      <c r="G7">
+        <v>-0.1237362611093958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00585401078994336</v>
+        <v>0.003011063295354012</v>
       </c>
       <c r="C8">
-        <v>-0.003374722869280069</v>
+        <v>-0.02408738600866539</v>
       </c>
       <c r="D8">
-        <v>-0.01251736452499197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004200129428281351</v>
+      </c>
+      <c r="E8">
+        <v>-0.03313461837275822</v>
+      </c>
+      <c r="F8">
+        <v>0.001721052686568378</v>
+      </c>
+      <c r="G8">
+        <v>-0.07243740969486241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.009093131414304581</v>
+        <v>0.03300673651368714</v>
       </c>
       <c r="C9">
-        <v>-0.01058936217835003</v>
+        <v>-0.04877796655934961</v>
       </c>
       <c r="D9">
-        <v>0.04934583530902397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01666419266472267</v>
+      </c>
+      <c r="E9">
+        <v>-0.02613655521196042</v>
+      </c>
+      <c r="F9">
+        <v>-0.0008354931472135364</v>
+      </c>
+      <c r="G9">
+        <v>-0.1052501981622245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1426994382753457</v>
+        <v>0.0977812141728427</v>
       </c>
       <c r="C10">
-        <v>0.06844440162314762</v>
+        <v>0.1826204894804314</v>
       </c>
       <c r="D10">
-        <v>-0.1359410959722504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01574013918993084</v>
+      </c>
+      <c r="E10">
+        <v>-0.01860437416776277</v>
+      </c>
+      <c r="F10">
+        <v>0.0249631093679799</v>
+      </c>
+      <c r="G10">
+        <v>-0.0534760593311376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.00459824559843941</v>
+        <v>0.03512285886107112</v>
       </c>
       <c r="C11">
-        <v>0.001633254295943388</v>
+        <v>-0.05185605154305678</v>
       </c>
       <c r="D11">
-        <v>0.04572758643712642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002724560208791285</v>
+      </c>
+      <c r="E11">
+        <v>-0.02211420063839545</v>
+      </c>
+      <c r="F11">
+        <v>-0.01454493866919068</v>
+      </c>
+      <c r="G11">
+        <v>-0.09068048727721532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.008156524646705968</v>
+        <v>0.03746191063445038</v>
       </c>
       <c r="C12">
-        <v>-0.002184149747417533</v>
+        <v>-0.04662188401428689</v>
       </c>
       <c r="D12">
-        <v>0.04042642268596878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006672257673493557</v>
+      </c>
+      <c r="E12">
+        <v>-0.009899372503180268</v>
+      </c>
+      <c r="F12">
+        <v>0.001194058748910172</v>
+      </c>
+      <c r="G12">
+        <v>-0.08340932396316257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01107251711849761</v>
+        <v>0.01381648350913078</v>
       </c>
       <c r="C13">
-        <v>-0.01822173476093505</v>
+        <v>-0.04182077599213654</v>
       </c>
       <c r="D13">
-        <v>0.02775140737686611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02725904713804907</v>
+      </c>
+      <c r="E13">
+        <v>-0.04160834189409984</v>
+      </c>
+      <c r="F13">
+        <v>0.007698773053868567</v>
+      </c>
+      <c r="G13">
+        <v>-0.1417293108480417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.001964443814839708</v>
+        <v>0.009078286168258795</v>
       </c>
       <c r="C14">
-        <v>-0.008329693015475806</v>
+        <v>-0.02868460733188909</v>
       </c>
       <c r="D14">
-        <v>0.01304988504516244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01048271775934235</v>
+      </c>
+      <c r="E14">
+        <v>-0.008089806537085697</v>
+      </c>
+      <c r="F14">
+        <v>0.01017981903037085</v>
+      </c>
+      <c r="G14">
+        <v>-0.1101545421328251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.006160254857347456</v>
+        <v>0.03374856453414629</v>
       </c>
       <c r="C16">
-        <v>0.002300346695758231</v>
+        <v>-0.04534537364008963</v>
       </c>
       <c r="D16">
-        <v>0.03377705450684662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002308008838828629</v>
+      </c>
+      <c r="E16">
+        <v>-0.01808320714363326</v>
+      </c>
+      <c r="F16">
+        <v>0.003893126207569098</v>
+      </c>
+      <c r="G16">
+        <v>-0.09311604912381287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0103220348605674</v>
+        <v>0.02117716342253019</v>
       </c>
       <c r="C19">
-        <v>-0.009197990843277801</v>
+        <v>-0.0518788755885717</v>
       </c>
       <c r="D19">
-        <v>0.04110638523145402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02029800484822522</v>
+      </c>
+      <c r="E19">
+        <v>-0.08815572008843699</v>
+      </c>
+      <c r="F19">
+        <v>0.002506029567525221</v>
+      </c>
+      <c r="G19">
+        <v>-0.1424470835385659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0006219756080901579</v>
+        <v>0.01576831648480966</v>
       </c>
       <c r="C20">
-        <v>-0.01114982586944828</v>
+        <v>-0.0413711157094278</v>
       </c>
       <c r="D20">
-        <v>0.03022879572432575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01474114252641963</v>
+      </c>
+      <c r="E20">
+        <v>-0.03867750898925245</v>
+      </c>
+      <c r="F20">
+        <v>0.02153186510303062</v>
+      </c>
+      <c r="G20">
+        <v>-0.1149462390865981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.002435829067862644</v>
+        <v>0.01028720231766712</v>
       </c>
       <c r="C21">
-        <v>-0.01515542489351187</v>
+        <v>-0.0387786282944425</v>
       </c>
       <c r="D21">
-        <v>0.004691156769859078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01984223732283952</v>
+      </c>
+      <c r="E21">
+        <v>-0.04923573599110467</v>
+      </c>
+      <c r="F21">
+        <v>0.01208092976629222</v>
+      </c>
+      <c r="G21">
+        <v>-0.1416307136286615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001355315665578627</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006978226399420683</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002149650892838984</v>
+      </c>
+      <c r="E22">
+        <v>-0.01632621055604241</v>
+      </c>
+      <c r="F22">
+        <v>-0.008024089008713792</v>
+      </c>
+      <c r="G22">
+        <v>-0.001746687261885159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001364044003614807</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006984935457438157</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002147345775394013</v>
+      </c>
+      <c r="E23">
+        <v>-0.01629954529661046</v>
+      </c>
+      <c r="F23">
+        <v>-0.008015915048304274</v>
+      </c>
+      <c r="G23">
+        <v>-0.001636149492578577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0001310763546970855</v>
+        <v>0.02905572796635195</v>
       </c>
       <c r="C24">
-        <v>-0.005442571153846654</v>
+        <v>-0.04853386355905501</v>
       </c>
       <c r="D24">
-        <v>0.03719489772830361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.00745551975984258</v>
+      </c>
+      <c r="E24">
+        <v>-0.01671765251366788</v>
+      </c>
+      <c r="F24">
+        <v>-0.006048843910649268</v>
+      </c>
+      <c r="G24">
+        <v>-0.09315218632813069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01563260376361065</v>
+        <v>0.04217954688844376</v>
       </c>
       <c r="C25">
-        <v>-0.0039059300237324</v>
+        <v>-0.05657889325990562</v>
       </c>
       <c r="D25">
-        <v>0.05000697911112578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01147488763381277</v>
+      </c>
+      <c r="E25">
+        <v>-0.005938762009684331</v>
+      </c>
+      <c r="F25">
+        <v>-0.003312684701877705</v>
+      </c>
+      <c r="G25">
+        <v>-0.09775817513924012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.00454843741615767</v>
+        <v>0.0145551519045927</v>
       </c>
       <c r="C26">
-        <v>-0.0220606730190358</v>
+        <v>-0.01131281840349397</v>
       </c>
       <c r="D26">
-        <v>-0.003453095662148914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0242254234131292</v>
+      </c>
+      <c r="E26">
+        <v>-0.007787618585298505</v>
+      </c>
+      <c r="F26">
+        <v>0.00838004690550655</v>
+      </c>
+      <c r="G26">
+        <v>-0.08571349004568106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1922894036500906</v>
+        <v>0.1263051379819886</v>
       </c>
       <c r="C28">
-        <v>0.07615953324529758</v>
+        <v>0.2409819207552797</v>
       </c>
       <c r="D28">
-        <v>-0.1627009047540577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007001399027126957</v>
+      </c>
+      <c r="E28">
+        <v>-0.00520362256517163</v>
+      </c>
+      <c r="F28">
+        <v>0.02125839644792783</v>
+      </c>
+      <c r="G28">
+        <v>-0.04616195807970248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.004577374014977115</v>
+        <v>0.009132343747543086</v>
       </c>
       <c r="C29">
-        <v>-0.00504290736516405</v>
+        <v>-0.0236343219604892</v>
       </c>
       <c r="D29">
-        <v>0.01358792357317706</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009495697607826757</v>
+      </c>
+      <c r="E29">
+        <v>-0.00275327104612301</v>
+      </c>
+      <c r="F29">
+        <v>0.01573017404917151</v>
+      </c>
+      <c r="G29">
+        <v>-0.1016220646340292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01336352501630573</v>
+        <v>0.03947800468582344</v>
       </c>
       <c r="C30">
-        <v>-0.01907597757537199</v>
+        <v>-0.06771580427559704</v>
       </c>
       <c r="D30">
-        <v>0.09074980767851852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02983751615403452</v>
+      </c>
+      <c r="E30">
+        <v>-0.07125294326318071</v>
+      </c>
+      <c r="F30">
+        <v>-0.02848503557649569</v>
+      </c>
+      <c r="G30">
+        <v>-0.1353692060235839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02090041017534398</v>
+        <v>0.05355334053727887</v>
       </c>
       <c r="C31">
-        <v>0.0043537263374741</v>
+        <v>-0.03968073604770728</v>
       </c>
       <c r="D31">
-        <v>0.0224581843057803</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003976767985241812</v>
+      </c>
+      <c r="E31">
+        <v>0.003724632773552681</v>
+      </c>
+      <c r="F31">
+        <v>0.03710276854548301</v>
+      </c>
+      <c r="G31">
+        <v>-0.09678689959837576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004735950854502752</v>
+        <v>0.00152488460914871</v>
       </c>
       <c r="C32">
-        <v>0.01101222570310041</v>
+        <v>-0.02247732869776474</v>
       </c>
       <c r="D32">
-        <v>0.01736726796047301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002309181375434242</v>
+      </c>
+      <c r="E32">
+        <v>-0.04379671841229212</v>
+      </c>
+      <c r="F32">
+        <v>-0.02787968559043215</v>
+      </c>
+      <c r="G32">
+        <v>-0.08558517450547402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.003482740225162372</v>
+        <v>0.0277150692551302</v>
       </c>
       <c r="C33">
-        <v>-0.01028093544256317</v>
+        <v>-0.05076806233013124</v>
       </c>
       <c r="D33">
-        <v>0.03255472284693677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01669584707624203</v>
+      </c>
+      <c r="E33">
+        <v>-0.05037906338991042</v>
+      </c>
+      <c r="F33">
+        <v>-0.00618515774836562</v>
+      </c>
+      <c r="G33">
+        <v>-0.1633375170248207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01766413103200961</v>
+        <v>0.04076198098246945</v>
       </c>
       <c r="C34">
-        <v>0.01450533179846009</v>
+        <v>-0.05834112348159059</v>
       </c>
       <c r="D34">
-        <v>0.05220905411951569</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004140175096738071</v>
+      </c>
+      <c r="E34">
+        <v>-0.01338156306698391</v>
+      </c>
+      <c r="F34">
+        <v>-0.01803424531275431</v>
+      </c>
+      <c r="G34">
+        <v>-0.0939032501608499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.006815807054335625</v>
+        <v>0.01585152029068191</v>
       </c>
       <c r="C36">
-        <v>-0.008664692110463891</v>
+        <v>-0.01046233222327266</v>
       </c>
       <c r="D36">
-        <v>-0.002044328084132034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01296967060639212</v>
+      </c>
+      <c r="E36">
+        <v>-0.009812810023900841</v>
+      </c>
+      <c r="F36">
+        <v>0.009267478875181638</v>
+      </c>
+      <c r="G36">
+        <v>-0.0936739431181257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01868692240153556</v>
+        <v>0.03151161981288323</v>
       </c>
       <c r="C38">
-        <v>0.01695207496829451</v>
+        <v>-0.02999871779670858</v>
       </c>
       <c r="D38">
-        <v>0.02982193916195056</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007495236565338189</v>
+      </c>
+      <c r="E38">
+        <v>-0.004473779320594914</v>
+      </c>
+      <c r="F38">
+        <v>0.01878665085866878</v>
+      </c>
+      <c r="G38">
+        <v>-0.08395447484332129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01124585555946864</v>
+        <v>0.03730776288932964</v>
       </c>
       <c r="C39">
-        <v>-0.01337599737739969</v>
+        <v>-0.07856286029872125</v>
       </c>
       <c r="D39">
-        <v>0.09133036011651142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01210320387084718</v>
+      </c>
+      <c r="E39">
+        <v>-0.03341427730105934</v>
+      </c>
+      <c r="F39">
+        <v>-0.01642981943804579</v>
+      </c>
+      <c r="G39">
+        <v>-0.09555672729822988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01285607215693114</v>
+        <v>0.01404607495941411</v>
       </c>
       <c r="C40">
-        <v>-0.005329108262925587</v>
+        <v>-0.03858037061706824</v>
       </c>
       <c r="D40">
-        <v>0.02005881244015257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01514935233777739</v>
+      </c>
+      <c r="E40">
+        <v>-0.03406074817826026</v>
+      </c>
+      <c r="F40">
+        <v>0.01356251387695561</v>
+      </c>
+      <c r="G40">
+        <v>-0.1246545860199401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01188096178165401</v>
+        <v>0.02001614321632576</v>
       </c>
       <c r="C41">
-        <v>0.001577270927850173</v>
+        <v>-0.003717585071813704</v>
       </c>
       <c r="D41">
-        <v>-0.01252396012432321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004919311915497568</v>
+      </c>
+      <c r="E41">
+        <v>-0.008038829162095</v>
+      </c>
+      <c r="F41">
+        <v>0.01624010980575645</v>
+      </c>
+      <c r="G41">
+        <v>-0.08831789408822495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.02541189377436082</v>
+        <v>0.006596973160297663</v>
       </c>
       <c r="C42">
-        <v>-0.08752399642769418</v>
+        <v>-0.02432200911267861</v>
       </c>
       <c r="D42">
-        <v>0.08054984935187245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08671400545288147</v>
+      </c>
+      <c r="E42">
+        <v>0.002387419552311572</v>
+      </c>
+      <c r="F42">
+        <v>0.03385321630128717</v>
+      </c>
+      <c r="G42">
+        <v>0.02486813315766939</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01360671417827219</v>
+        <v>0.03530799518669719</v>
       </c>
       <c r="C43">
-        <v>0.001556603520817487</v>
+        <v>-0.01952164958800524</v>
       </c>
       <c r="D43">
-        <v>-0.009380385838303907</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006304970952607608</v>
+      </c>
+      <c r="E43">
+        <v>-0.02159372814003329</v>
+      </c>
+      <c r="F43">
+        <v>0.01209611253065929</v>
+      </c>
+      <c r="G43">
+        <v>-0.1199830892531983</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003028360167852192</v>
+        <v>0.01363548158669199</v>
       </c>
       <c r="C44">
-        <v>-0.003925576395083286</v>
+        <v>-0.05892177149466553</v>
       </c>
       <c r="D44">
-        <v>0.04299618333740809</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007241134973098377</v>
+      </c>
+      <c r="E44">
+        <v>-0.02782002718242416</v>
+      </c>
+      <c r="F44">
+        <v>0.01694164884665464</v>
+      </c>
+      <c r="G44">
+        <v>-0.1127096187539805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0007163838485237288</v>
+        <v>0.008864094926094674</v>
       </c>
       <c r="C46">
-        <v>-0.01034973560981926</v>
+        <v>-0.01546068945534195</v>
       </c>
       <c r="D46">
-        <v>-0.008716875758402794</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01257385313209789</v>
+      </c>
+      <c r="E46">
+        <v>0.003732797793029066</v>
+      </c>
+      <c r="F46">
+        <v>0.01905357870807869</v>
+      </c>
+      <c r="G46">
+        <v>-0.1070728319771328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02903299755448628</v>
+        <v>0.07995344153249631</v>
       </c>
       <c r="C47">
-        <v>0.01576988449029439</v>
+        <v>-0.06961588035913045</v>
       </c>
       <c r="D47">
-        <v>0.0679041615085226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005144561023890559</v>
+      </c>
+      <c r="E47">
+        <v>0.01477557916449092</v>
+      </c>
+      <c r="F47">
+        <v>0.05273902712443936</v>
+      </c>
+      <c r="G47">
+        <v>-0.08554226177290708</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004088624360714003</v>
+        <v>0.01918812659353517</v>
       </c>
       <c r="C48">
-        <v>0.0004963861677282143</v>
+        <v>-0.0130307288045672</v>
       </c>
       <c r="D48">
-        <v>0.008377818549629157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002513408465316382</v>
+      </c>
+      <c r="E48">
+        <v>-0.003866780943745983</v>
+      </c>
+      <c r="F48">
+        <v>0.02101094767858379</v>
+      </c>
+      <c r="G48">
+        <v>-0.1028745874933836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0405517505011919</v>
+        <v>0.07590455181739945</v>
       </c>
       <c r="C50">
-        <v>0.01928899558289741</v>
+        <v>-0.07205114805418154</v>
       </c>
       <c r="D50">
-        <v>0.05789770062718046</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.00208570556913115</v>
+      </c>
+      <c r="E50">
+        <v>0.01118784662085342</v>
+      </c>
+      <c r="F50">
+        <v>0.05106025729628983</v>
+      </c>
+      <c r="G50">
+        <v>-0.09593979197993323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.001873610603929244</v>
+        <v>0.01294915825059171</v>
       </c>
       <c r="C51">
-        <v>-0.005419283024873617</v>
+        <v>-0.0379804014825077</v>
       </c>
       <c r="D51">
-        <v>0.0175517460268413</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01109023327299181</v>
+      </c>
+      <c r="E51">
+        <v>-0.02989712059394</v>
+      </c>
+      <c r="F51">
+        <v>-0.01236728402109017</v>
+      </c>
+      <c r="G51">
+        <v>-0.12334935936927</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04467997119031486</v>
+        <v>0.08176379892578499</v>
       </c>
       <c r="C53">
-        <v>0.02106112260869518</v>
+        <v>-0.08352751597164652</v>
       </c>
       <c r="D53">
-        <v>0.1011437036656781</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003519486144294087</v>
+      </c>
+      <c r="E53">
+        <v>0.03338615949152368</v>
+      </c>
+      <c r="F53">
+        <v>0.05792598224926173</v>
+      </c>
+      <c r="G53">
+        <v>-0.08774067428413256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01409910294239823</v>
+        <v>0.03216486679875988</v>
       </c>
       <c r="C54">
-        <v>0.009390214270929188</v>
+        <v>-0.01927619914094117</v>
       </c>
       <c r="D54">
-        <v>-0.005926800474314594</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0008934227469227773</v>
+      </c>
+      <c r="E54">
+        <v>-0.01795072386547474</v>
+      </c>
+      <c r="F54">
+        <v>0.009779513622584193</v>
+      </c>
+      <c r="G54">
+        <v>-0.1107071469685984</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.03015659312528922</v>
+        <v>0.07417398544290293</v>
       </c>
       <c r="C55">
-        <v>0.0157997406241425</v>
+        <v>-0.06665930467665254</v>
       </c>
       <c r="D55">
-        <v>0.08561078761424451</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005198248227166645</v>
+      </c>
+      <c r="E55">
+        <v>0.03225905904490713</v>
+      </c>
+      <c r="F55">
+        <v>0.05488778956556525</v>
+      </c>
+      <c r="G55">
+        <v>-0.06553851258562697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.07321098397194882</v>
+        <v>0.1371899387026332</v>
       </c>
       <c r="C56">
-        <v>0.03964350881355597</v>
+        <v>-0.1058171604586352</v>
       </c>
       <c r="D56">
-        <v>0.1481725344697706</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01327559026105543</v>
+      </c>
+      <c r="E56">
+        <v>0.04309535681943374</v>
+      </c>
+      <c r="F56">
+        <v>0.07152775048461359</v>
+      </c>
+      <c r="G56">
+        <v>-0.03739510688784864</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01424660768677237</v>
+        <v>0.004474175118643328</v>
       </c>
       <c r="C57">
-        <v>-0.01770559223976144</v>
+        <v>-0.005854573347826846</v>
       </c>
       <c r="D57">
-        <v>0.0234081281020537</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02272759926150636</v>
+      </c>
+      <c r="E57">
+        <v>-0.02444693479925836</v>
+      </c>
+      <c r="F57">
+        <v>-0.001531277161481099</v>
+      </c>
+      <c r="G57">
+        <v>-0.02009101967278209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009429098696238194</v>
+        <v>0.04619227222691209</v>
       </c>
       <c r="C58">
-        <v>0.002814776177359952</v>
+        <v>-0.04420706434045654</v>
       </c>
       <c r="D58">
-        <v>0.1777238356959329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02391443572154747</v>
+      </c>
+      <c r="E58">
+        <v>-0.8363129001320477</v>
+      </c>
+      <c r="F58">
+        <v>0.4446789143381266</v>
+      </c>
+      <c r="G58">
+        <v>0.2427113002947496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2203379200228281</v>
+        <v>0.1578241877446283</v>
       </c>
       <c r="C59">
-        <v>0.09416556030050222</v>
+        <v>0.2079595631170286</v>
       </c>
       <c r="D59">
-        <v>-0.1444413049186044</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01147969910155822</v>
+      </c>
+      <c r="E59">
+        <v>-0.02537575344426561</v>
+      </c>
+      <c r="F59">
+        <v>0.00650394396626818</v>
+      </c>
+      <c r="G59">
+        <v>-0.03610095276247433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.238477385999327</v>
+        <v>0.2885947109502337</v>
       </c>
       <c r="C60">
-        <v>0.08731496472151203</v>
+        <v>-0.1138971918214241</v>
       </c>
       <c r="D60">
-        <v>0.18775766038275</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0137927736573842</v>
+      </c>
+      <c r="E60">
+        <v>-0.07732988678068657</v>
+      </c>
+      <c r="F60">
+        <v>-0.3378751048573838</v>
+      </c>
+      <c r="G60">
+        <v>0.1618342312682551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0008070446408120546</v>
+        <v>0.03876282482203412</v>
       </c>
       <c r="C61">
-        <v>-0.003159897840859413</v>
+        <v>-0.06468474924140287</v>
       </c>
       <c r="D61">
-        <v>0.06949819612696344</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006202169936353583</v>
+      </c>
+      <c r="E61">
+        <v>-0.0291055796326439</v>
+      </c>
+      <c r="F61">
+        <v>-0.009737547343958852</v>
+      </c>
+      <c r="G61">
+        <v>-0.10194144997943</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.003295223047770092</v>
+        <v>0.01472536203043173</v>
       </c>
       <c r="C63">
-        <v>-0.006290385979468406</v>
+        <v>-0.0303097123652235</v>
       </c>
       <c r="D63">
-        <v>0.01879797449251379</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.00890433202147462</v>
+      </c>
+      <c r="E63">
+        <v>-0.004942507110850364</v>
+      </c>
+      <c r="F63">
+        <v>0.01442711841228713</v>
+      </c>
+      <c r="G63">
+        <v>-0.09440305276612314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02916794087941973</v>
+        <v>0.0492397323698713</v>
       </c>
       <c r="C64">
-        <v>0.007837524791799387</v>
+        <v>-0.04544317551340264</v>
       </c>
       <c r="D64">
-        <v>0.04618484150242277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006553170066951922</v>
+      </c>
+      <c r="E64">
+        <v>-0.005982755191241452</v>
+      </c>
+      <c r="F64">
+        <v>-0.005886937736323492</v>
+      </c>
+      <c r="G64">
+        <v>-0.1029085560703785</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.04176314764256966</v>
+        <v>0.0743817199515478</v>
       </c>
       <c r="C65">
-        <v>0.001413426637917586</v>
+        <v>-0.05955660055099939</v>
       </c>
       <c r="D65">
-        <v>0.1097350562710323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01736724131824541</v>
+      </c>
+      <c r="E65">
+        <v>-0.04948270085125592</v>
+      </c>
+      <c r="F65">
+        <v>-0.01826554669231064</v>
+      </c>
+      <c r="G65">
+        <v>-0.04419842237458776</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.008340296248845544</v>
+        <v>0.04951267334422544</v>
       </c>
       <c r="C66">
-        <v>-0.01119228410945429</v>
+        <v>-0.1052002816593478</v>
       </c>
       <c r="D66">
-        <v>0.1305313868986207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01248409030506506</v>
+      </c>
+      <c r="E66">
+        <v>-0.05049847997690166</v>
+      </c>
+      <c r="F66">
+        <v>-0.02456004137389581</v>
+      </c>
+      <c r="G66">
+        <v>-0.1064070289016281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04245448363490234</v>
+        <v>0.05490428230923592</v>
       </c>
       <c r="C67">
-        <v>0.0238862699908958</v>
+        <v>-0.03494744309789603</v>
       </c>
       <c r="D67">
-        <v>0.04963340567798163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006049604196577309</v>
+      </c>
+      <c r="E67">
+        <v>0.006227057580013973</v>
+      </c>
+      <c r="F67">
+        <v>0.0152743078244375</v>
+      </c>
+      <c r="G67">
+        <v>-0.07071937698516612</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2228663442470048</v>
+        <v>0.1565508639786046</v>
       </c>
       <c r="C68">
-        <v>0.07376061855401461</v>
+        <v>0.2721425388621758</v>
       </c>
       <c r="D68">
-        <v>-0.203041029071701</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004734119674985935</v>
+      </c>
+      <c r="E68">
+        <v>-0.002381138627884084</v>
+      </c>
+      <c r="F68">
+        <v>0.04675879504068016</v>
+      </c>
+      <c r="G68">
+        <v>-0.02243825287373787</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03587231633111576</v>
+        <v>0.08239049727768356</v>
       </c>
       <c r="C69">
-        <v>0.02295511512458786</v>
+        <v>-0.07378818000646821</v>
       </c>
       <c r="D69">
-        <v>0.06959696405117675</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008925332534130108</v>
+      </c>
+      <c r="E69">
+        <v>0.02742769535001312</v>
+      </c>
+      <c r="F69">
+        <v>0.03247443668824166</v>
+      </c>
+      <c r="G69">
+        <v>-0.09792845094694366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1912339955739499</v>
+        <v>0.1416615878310376</v>
       </c>
       <c r="C71">
-        <v>0.07141920964225698</v>
+        <v>0.229468421028039</v>
       </c>
       <c r="D71">
-        <v>-0.1376777705088316</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002946770444029234</v>
+      </c>
+      <c r="E71">
+        <v>-0.03090394315442602</v>
+      </c>
+      <c r="F71">
+        <v>0.03132041144108292</v>
+      </c>
+      <c r="G71">
+        <v>-0.0679788624548583</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0306978099900341</v>
+        <v>0.08727466320557897</v>
       </c>
       <c r="C72">
-        <v>0.02206370073838887</v>
+        <v>-0.06918422981633385</v>
       </c>
       <c r="D72">
-        <v>0.08770811538199162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008355918054036125</v>
+      </c>
+      <c r="E72">
+        <v>0.00744108809678798</v>
+      </c>
+      <c r="F72">
+        <v>-0.03511380911210665</v>
+      </c>
+      <c r="G72">
+        <v>-0.09327596665132468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3185900839040816</v>
+        <v>0.3744004450626244</v>
       </c>
       <c r="C73">
-        <v>0.1149142846568563</v>
+        <v>-0.1170632342010859</v>
       </c>
       <c r="D73">
-        <v>0.2749255940412035</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.023903871966131</v>
+      </c>
+      <c r="E73">
+        <v>-0.1927884184098896</v>
+      </c>
+      <c r="F73">
+        <v>-0.5589833986432527</v>
+      </c>
+      <c r="G73">
+        <v>0.2928327646166668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.06093203102418399</v>
+        <v>0.1047819297075849</v>
       </c>
       <c r="C74">
-        <v>0.03501341812939245</v>
+        <v>-0.1089253194600026</v>
       </c>
       <c r="D74">
-        <v>0.1496734657531745</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009535704117797647</v>
+      </c>
+      <c r="E74">
+        <v>0.01799256471683437</v>
+      </c>
+      <c r="F74">
+        <v>0.06437334189852599</v>
+      </c>
+      <c r="G74">
+        <v>-0.0702820860397786</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1573588795232437</v>
+        <v>0.2498014334965127</v>
       </c>
       <c r="C75">
-        <v>0.08347239036290306</v>
+        <v>-0.1495362783194219</v>
       </c>
       <c r="D75">
-        <v>0.2694116408740567</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03171691573625038</v>
+      </c>
+      <c r="E75">
+        <v>0.09395497974994683</v>
+      </c>
+      <c r="F75">
+        <v>0.1541781106044733</v>
+      </c>
+      <c r="G75">
+        <v>0.02343423846497227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0660640716653464</v>
+        <v>0.1175115072954654</v>
       </c>
       <c r="C76">
-        <v>0.04266855478014119</v>
+        <v>-0.1100018705506552</v>
       </c>
       <c r="D76">
-        <v>0.1738668381297498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01767750944074698</v>
+      </c>
+      <c r="E76">
+        <v>0.04124621369741471</v>
+      </c>
+      <c r="F76">
+        <v>0.08986055027067828</v>
+      </c>
+      <c r="G76">
+        <v>-0.05241842309485671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.02318550857669233</v>
+        <v>0.0714993310469129</v>
       </c>
       <c r="C77">
-        <v>0.001281249487839642</v>
+        <v>-0.05696102017140824</v>
       </c>
       <c r="D77">
-        <v>0.07934905960006902</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.009925249569112601</v>
+      </c>
+      <c r="E77">
+        <v>-0.04988827269792113</v>
+      </c>
+      <c r="F77">
+        <v>0.004911911925723723</v>
+      </c>
+      <c r="G77">
+        <v>-0.07268281589993772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.01695217387959715</v>
+        <v>0.04333847371373618</v>
       </c>
       <c r="C78">
-        <v>0.00398325752932728</v>
+        <v>-0.05021144914473767</v>
       </c>
       <c r="D78">
-        <v>0.06596877209375501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006454989243388642</v>
+      </c>
+      <c r="E78">
+        <v>-0.03759555985793656</v>
+      </c>
+      <c r="F78">
+        <v>-0.02861321023468472</v>
+      </c>
+      <c r="G78">
+        <v>-0.1063477944351595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0008845052239785585</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>4.903321465754666e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003297953327472348</v>
+      </c>
+      <c r="E79">
+        <v>-0.003883488694191721</v>
+      </c>
+      <c r="F79">
+        <v>-0.0005216057872413527</v>
+      </c>
+      <c r="G79">
+        <v>-0.00282424584689033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03935196545037469</v>
+        <v>0.04296812197224936</v>
       </c>
       <c r="C80">
-        <v>0.00581882804443378</v>
+        <v>-0.04951479153329291</v>
       </c>
       <c r="D80">
-        <v>0.07312858946893686</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01341960632225481</v>
+      </c>
+      <c r="E80">
+        <v>-0.02800654929216733</v>
+      </c>
+      <c r="F80">
+        <v>-0.001982805135638363</v>
+      </c>
+      <c r="G80">
+        <v>-0.05135998716953804</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.07635950173164881</v>
+        <v>0.1384919395388618</v>
       </c>
       <c r="C81">
-        <v>0.04062644404503772</v>
+        <v>-0.09664237151506676</v>
       </c>
       <c r="D81">
-        <v>0.1506070284316745</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01541912283608959</v>
+      </c>
+      <c r="E81">
+        <v>0.05826237167085638</v>
+      </c>
+      <c r="F81">
+        <v>0.1199676099515889</v>
+      </c>
+      <c r="G81">
+        <v>-0.02039598915023951</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.005865183503873488</v>
+        <v>0.1469744687687723</v>
       </c>
       <c r="C82">
-        <v>0.002577561043662275</v>
+        <v>-0.08296022108569508</v>
       </c>
       <c r="D82">
-        <v>0.007173611145461159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01191109119626029</v>
+      </c>
+      <c r="E82">
+        <v>0.1270991973224122</v>
+      </c>
+      <c r="F82">
+        <v>0.04576692111510374</v>
+      </c>
+      <c r="G82">
+        <v>-0.06649652146224937</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01578003772475001</v>
+        <v>0.0335525767343369</v>
       </c>
       <c r="C83">
-        <v>0.002718718669372546</v>
+        <v>-0.0316895096988354</v>
       </c>
       <c r="D83">
-        <v>0.01793386638955892</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.00668949408704295</v>
+      </c>
+      <c r="E83">
+        <v>-0.03413990982542544</v>
+      </c>
+      <c r="F83">
+        <v>-0.02695290426311179</v>
+      </c>
+      <c r="G83">
+        <v>-0.06119355021038215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1470026313555871</v>
+        <v>0.2097388013638506</v>
       </c>
       <c r="C85">
-        <v>0.06636257599949422</v>
+        <v>-0.1454377104921813</v>
       </c>
       <c r="D85">
-        <v>0.2572548736876024</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01736708978358414</v>
+      </c>
+      <c r="E85">
+        <v>0.1161334398950233</v>
+      </c>
+      <c r="F85">
+        <v>0.08976487001020773</v>
+      </c>
+      <c r="G85">
+        <v>0.06360016620409656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008717299529689564</v>
+        <v>0.01277076578865294</v>
       </c>
       <c r="C86">
-        <v>-0.001604066387581302</v>
+        <v>-0.02749533983512474</v>
       </c>
       <c r="D86">
-        <v>0.03075639422724989</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01171007899512769</v>
+      </c>
+      <c r="E86">
+        <v>-0.05295504391625739</v>
+      </c>
+      <c r="F86">
+        <v>-0.006698763171054257</v>
+      </c>
+      <c r="G86">
+        <v>-0.1816944072128972</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.00892042503453544</v>
+        <v>0.02133048509338469</v>
       </c>
       <c r="C87">
-        <v>-0.01238804695043778</v>
+        <v>-0.01809469192499541</v>
       </c>
       <c r="D87">
-        <v>0.0274636142806767</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01254184760592882</v>
+      </c>
+      <c r="E87">
+        <v>-0.09863612832595553</v>
+      </c>
+      <c r="F87">
+        <v>0.01608586502625346</v>
+      </c>
+      <c r="G87">
+        <v>-0.1248365635662712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04356344103897157</v>
+        <v>0.09344217671386482</v>
       </c>
       <c r="C88">
-        <v>-0.005818739839794828</v>
+        <v>-0.06944550703526578</v>
       </c>
       <c r="D88">
-        <v>0.03741666187816729</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02209909568189103</v>
+      </c>
+      <c r="E88">
+        <v>0.006222763439642742</v>
+      </c>
+      <c r="F88">
+        <v>0.02041223727197265</v>
+      </c>
+      <c r="G88">
+        <v>-0.1026465297767701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3324235099161323</v>
+        <v>0.2314725904765489</v>
       </c>
       <c r="C89">
-        <v>0.1200950452853517</v>
+        <v>0.366495600184856</v>
       </c>
       <c r="D89">
-        <v>-0.2620984918768135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0001967615738233045</v>
+      </c>
+      <c r="E89">
+        <v>0.02356683254898003</v>
+      </c>
+      <c r="F89">
+        <v>0.01986230275233108</v>
+      </c>
+      <c r="G89">
+        <v>-0.07925435815719914</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2818223764179986</v>
+        <v>0.2093035546642581</v>
       </c>
       <c r="C90">
-        <v>0.1052487785635764</v>
+        <v>0.3165297147245029</v>
       </c>
       <c r="D90">
-        <v>-0.2275016435036446</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004913562397805735</v>
+      </c>
+      <c r="E90">
+        <v>0.003671793131564099</v>
+      </c>
+      <c r="F90">
+        <v>0.0486656176373719</v>
+      </c>
+      <c r="G90">
+        <v>-0.04822926423362562</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1175658482842627</v>
+        <v>0.1852740103427399</v>
       </c>
       <c r="C91">
-        <v>0.0653748447293583</v>
+        <v>-0.1380174670101701</v>
       </c>
       <c r="D91">
-        <v>0.1870218937785836</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02268420326219146</v>
+      </c>
+      <c r="E91">
+        <v>0.08861507933327539</v>
+      </c>
+      <c r="F91">
+        <v>0.1231185535166885</v>
+      </c>
+      <c r="G91">
+        <v>-0.02406111225773228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2520947429911052</v>
+        <v>0.1966663219010564</v>
       </c>
       <c r="C92">
-        <v>0.129732457169483</v>
+        <v>0.2596407984642876</v>
       </c>
       <c r="D92">
-        <v>-0.1406189102106745</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03883349633437931</v>
+      </c>
+      <c r="E92">
+        <v>-0.02306270860197226</v>
+      </c>
+      <c r="F92">
+        <v>0.06119900497591564</v>
+      </c>
+      <c r="G92">
+        <v>-0.09850467486319418</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3082618528950732</v>
+        <v>0.2332410845302106</v>
       </c>
       <c r="C93">
-        <v>0.1232337985783156</v>
+        <v>0.3142306222981855</v>
       </c>
       <c r="D93">
-        <v>-0.1877783185867329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01170232003175159</v>
+      </c>
+      <c r="E93">
+        <v>-0.003272222667032028</v>
+      </c>
+      <c r="F93">
+        <v>0.04075938100308252</v>
+      </c>
+      <c r="G93">
+        <v>-0.06006525665957975</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1656167733346966</v>
+        <v>0.3197210781894434</v>
       </c>
       <c r="C94">
-        <v>0.06493564989602371</v>
+        <v>-0.1863348476198738</v>
       </c>
       <c r="D94">
-        <v>0.2743045488005129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0211053287366858</v>
+      </c>
+      <c r="E94">
+        <v>0.306737911404874</v>
+      </c>
+      <c r="F94">
+        <v>0.4246184050625615</v>
+      </c>
+      <c r="G94">
+        <v>0.40254893353419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.02591798000181074</v>
+        <v>0.09447622419791088</v>
       </c>
       <c r="C95">
-        <v>0.02075894567095841</v>
+        <v>-0.08300282615387367</v>
       </c>
       <c r="D95">
-        <v>0.1298337822190641</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009215026547839216</v>
+      </c>
+      <c r="E95">
+        <v>-0.1039642109502988</v>
+      </c>
+      <c r="F95">
+        <v>-0.1545564416579257</v>
+      </c>
+      <c r="G95">
+        <v>-0.03086786255570937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.155005350121596</v>
+        <v>0.1915949898738487</v>
       </c>
       <c r="C98">
-        <v>0.08021127243871409</v>
+        <v>-0.04675395278204882</v>
       </c>
       <c r="D98">
-        <v>0.1121893045086185</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01135681268286644</v>
+      </c>
+      <c r="E98">
+        <v>-0.1200779842310804</v>
+      </c>
+      <c r="F98">
+        <v>-0.2214813233694465</v>
+      </c>
+      <c r="G98">
+        <v>0.0218620676606322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.004215253038560419</v>
+        <v>0.008971530784754255</v>
       </c>
       <c r="C101">
-        <v>-0.005035467788792538</v>
+        <v>-0.02351482911863694</v>
       </c>
       <c r="D101">
-        <v>0.01388529382321918</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009321884246373069</v>
+      </c>
+      <c r="E101">
+        <v>-0.002380283872897597</v>
+      </c>
+      <c r="F101">
+        <v>0.01661649794142844</v>
+      </c>
+      <c r="G101">
+        <v>-0.1011742807398772</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0822302381733948</v>
+        <v>0.1172701511396489</v>
       </c>
       <c r="C102">
-        <v>0.02939347888441836</v>
+        <v>-0.08196840913242406</v>
       </c>
       <c r="D102">
-        <v>0.1272979629274148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0005946418350052609</v>
+      </c>
+      <c r="E102">
+        <v>0.04177213474525359</v>
+      </c>
+      <c r="F102">
+        <v>0.03341558097818708</v>
+      </c>
+      <c r="G102">
+        <v>-0.01666287092659112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.374233287404333</v>
+        <v>0.02142134395411932</v>
       </c>
       <c r="C104">
-        <v>-0.9178751965182831</v>
+        <v>0.03066836795358505</v>
       </c>
       <c r="D104">
-        <v>-0.003792150963601608</v>
+        <v>0.9875361144967894</v>
+      </c>
+      <c r="E104">
+        <v>0.06103311941960432</v>
+      </c>
+      <c r="F104">
+        <v>0.02787903331862714</v>
+      </c>
+      <c r="G104">
+        <v>0.04143074211014808</v>
       </c>
     </row>
   </sheetData>
